--- a/medicine/Mort/Tombe_Brion/Tombe_Brion.xlsx
+++ b/medicine/Mort/Tombe_Brion/Tombe_Brion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe Brion (en italien : tomba Brion, également connue sous le nom de sanctuaire Brion, cimetière Brion et tombe Brion-Vega) est le lieu de sépulture de la famille Brion.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Située à San Vito d'Altivole près de Trévise, en Italie, la tombe a été conçue par l'architecte vénitien Carlo Scarpa[1] entre 1968 et 1978 comme une extension en forme de L de 2 000 mètres carrés du cimetière municipal adjacent. Il s'agit d'un cimetière privé pour la famille Brion où deux sarcophages futuristes jumelés sont au centre de l'ensemble.
-Ce mausolée est considéré comme un chef-d'œuvre de l'architecture moderniste et un puissant monument commémoratif[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Située à San Vito d'Altivole près de Trévise, en Italie, la tombe a été conçue par l'architecte vénitien Carlo Scarpa entre 1968 et 1978 comme une extension en forme de L de 2 000 mètres carrés du cimetière municipal adjacent. Il s'agit d'un cimetière privé pour la famille Brion où deux sarcophages futuristes jumelés sont au centre de l'ensemble.
+Ce mausolée est considéré comme un chef-d'œuvre de l'architecture moderniste et un puissant monument commémoratif.
 Le projet monumental a été commandé en 1969 par Onorina Tomasin, veuve de Giuseppe Brion, le fondateur de la société Brionvega.
-Scarpa est lui-même enterré à côté[3].
+Scarpa est lui-même enterré à côté.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tombe Brion a été utilisée comme lieu de tournage de Dune, deuxième partie en juillet 2022[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tombe Brion a été utilisée comme lieu de tournage de Dune, deuxième partie en juillet 2022,.
 </t>
         </is>
       </c>
